--- a/xlsx/country_comparison/foreign_aid_no_positive.xlsx
+++ b/xlsx/country_comparison/foreign_aid_no_positive.xlsx
@@ -411,7 +411,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.290243110446831</v>
+        <v>0.29024310987286</v>
       </c>
       <c r="C2" t="n">
         <v>0.299998088225439</v>
@@ -434,7 +434,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.401710492698519</v>
+        <v>0.40171049482437</v>
       </c>
       <c r="C3" t="n">
         <v>0.533906058880566</v>
@@ -457,7 +457,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.156571318952096</v>
+        <v>0.156571321939449</v>
       </c>
       <c r="C4" t="n">
         <v>0.157369637796798</v>
@@ -480,7 +480,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.449551137457162</v>
+        <v>0.44955113604178</v>
       </c>
       <c r="C5" t="n">
         <v>0.299947035992978</v>
@@ -503,7 +503,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.629727264619073</v>
+        <v>0.629727265520621</v>
       </c>
       <c r="C6" t="n">
         <v>0.629332326983845</v>
